--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3840.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3840.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.299358190337399</v>
+        <v>3.376304149627686</v>
       </c>
       <c r="B1">
-        <v>2.168536327983002</v>
+        <v>6.287168979644775</v>
       </c>
       <c r="C1">
-        <v>4.602470048538537</v>
+        <v>7.302213668823242</v>
       </c>
       <c r="D1">
-        <v>3.5560971100945</v>
+        <v>7.415004253387451</v>
       </c>
       <c r="E1">
-        <v>1.080026383345133</v>
+        <v>3.761239051818848</v>
       </c>
     </row>
   </sheetData>
